--- a/machines/IT.xlsx
+++ b/machines/IT.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Data\sirius-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="8_{EF14C8F2-4EE6-4BF9-BFC2-F147E0F46817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC149F15-21AC-4C81-8E61-F8F48C3C0639}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C672ADDC-D1F7-4756-AA38-937FEDE5F93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD7B2596-FC84-46C7-89F7-1CFCCFBC6B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="text" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Device</t>
   </si>
@@ -200,9 +189,6 @@
     <t>Steel</t>
   </si>
   <si>
-    <t>Monitor</t>
-  </si>
-  <si>
     <t>https://i.ibb.co/b5vdy0D9/monitor.png</t>
   </si>
   <si>
@@ -215,9 +201,6 @@
     <t>Modem</t>
   </si>
   <si>
-    <t>https://i.ibb.co/fGvKGgx2/modem.png</t>
-  </si>
-  <si>
     <t>Printer</t>
   </si>
   <si>
@@ -252,13 +235,58 @@
   </si>
   <si>
     <t>https://i.ibb.co/5x287H4T/projector.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor </t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>Internal Structure</t>
+  </si>
+  <si>
+    <t>Cables</t>
+  </si>
+  <si>
+    <t>Rubber</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Circuit Boards</t>
+  </si>
+  <si>
+    <t>Back Cover</t>
+  </si>
+  <si>
+    <t>Casing</t>
+  </si>
+  <si>
+    <t>Heat Sinks</t>
+  </si>
+  <si>
+    <t>Aliminum</t>
+  </si>
+  <si>
+    <t>Connectors</t>
+  </si>
+  <si>
+    <t>Printing Mechanisms</t>
+  </si>
+  <si>
+    <t>Ink Cartidges</t>
+  </si>
+  <si>
+    <t>Rollers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,7 +727,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -743,24 +771,31 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -788,12 +823,13 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="42" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -819,7 +855,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1115,23 +1151,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A78561-CCB4-4A4B-B36C-B6AA7776C4AA}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="61.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="61.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1151,11 +1187,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
@@ -1164,40 +1200,40 @@
       <c r="D2">
         <v>75</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3">
         <v>32</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
@@ -1206,48 +1242,48 @@
       <c r="D5">
         <v>15</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6">
         <v>75</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8">
         <v>75</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
@@ -1256,80 +1292,80 @@
       <c r="D9">
         <v>1500</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10">
         <v>350</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="15">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11">
+        <v>7.5</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+    <row r="12" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="D12">
+        <v>7.5</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
@@ -1338,36 +1374,36 @@
       <c r="D15">
         <v>150</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+    <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16">
         <v>75</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C18" t="s">
@@ -1376,48 +1412,48 @@
       <c r="D18">
         <v>15</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+    <row r="19" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="D19">
+        <v>7.5</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+    <row r="20" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+    <row r="21" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21">
         <v>35</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C22" t="s">
@@ -1426,26 +1462,26 @@
       <c r="D22">
         <v>350</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+    <row r="23" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23">
         <v>150</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="15">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C24" t="s">
@@ -1454,52 +1490,52 @@
       <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+    <row r="25" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+    <row r="26" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+    <row r="27" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>24</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C28" t="s">
@@ -1508,36 +1544,36 @@
       <c r="D28">
         <v>35</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+    <row r="29" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29">
         <v>15</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+    <row r="30" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C31" t="s">
@@ -1546,48 +1582,48 @@
       <c r="D31" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+    <row r="32" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
       <c r="C32" t="s">
         <v>28</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+    <row r="33" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" t="s">
         <v>29</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+    <row r="34" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34">
         <v>15</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C35" t="s">
@@ -1596,38 +1632,38 @@
       <c r="D35">
         <v>15</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+    <row r="36" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+    <row r="37" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37">
         <v>15</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="3"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" ht="15">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C38" t="s">
@@ -1636,40 +1672,40 @@
       <c r="D38">
         <v>3500</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+    <row r="39" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39" t="s">
         <v>17</v>
       </c>
       <c r="D39">
         <v>750</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+    <row r="40" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>24</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
+    <row r="41" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C41" t="s">
@@ -1678,36 +1714,36 @@
       <c r="D41">
         <v>150</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+    <row r="42" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
       <c r="C42" t="s">
         <v>16</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+    <row r="43" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
       <c r="C43" t="s">
         <v>17</v>
       </c>
       <c r="D43">
         <v>150</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="3"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
+    <row r="44" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C44" t="s">
@@ -1716,26 +1752,26 @@
       <c r="D44">
         <v>1500</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="3"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+    <row r="45" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45" t="s">
         <v>8</v>
       </c>
       <c r="D45">
         <v>750</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="3"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" ht="15">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C46" t="s">
@@ -1744,40 +1780,40 @@
       <c r="D46">
         <v>15</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+    <row r="47" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47">
         <v>35</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+    <row r="48" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
       <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2" t="s">
+    <row r="49" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C49" t="s">
@@ -1786,24 +1822,24 @@
       <c r="D49">
         <v>75</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+    <row r="50" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2" t="s">
+    <row r="51" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C51" t="s">
@@ -1812,26 +1848,26 @@
       <c r="D51">
         <v>1500</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+    <row r="52" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
       <c r="C52" t="s">
         <v>8</v>
       </c>
       <c r="D52">
         <v>750</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" ht="15">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C53" t="s">
@@ -1840,40 +1876,40 @@
       <c r="D53">
         <v>35</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+    <row r="54" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
       <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="D54" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="3"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+    <row r="55" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
       <c r="C55" t="s">
         <v>17</v>
       </c>
       <c r="D55">
         <v>75</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="3"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
+    <row r="56" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C56" t="s">
@@ -1882,24 +1918,24 @@
       <c r="D56">
         <v>75</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="3"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+    <row r="57" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
       <c r="C57" t="s">
         <v>15</v>
       </c>
       <c r="D57">
         <v>15</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="3"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2" t="s">
+    <row r="58" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C58" t="s">
@@ -1908,24 +1944,24 @@
       <c r="D58">
         <v>75</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="3"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+    <row r="59" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
       <c r="C59" t="s">
         <v>15</v>
       </c>
       <c r="D59">
         <v>15</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
+    <row r="60" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C60" t="s">
@@ -1934,26 +1970,26 @@
       <c r="D60">
         <v>75</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="3"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+    <row r="61" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
       <c r="C61" t="s">
         <v>48</v>
       </c>
       <c r="D61">
         <v>15</v>
       </c>
-      <c r="E61" s="2"/>
+      <c r="E61" s="3"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" ht="15">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C62" t="s">
@@ -1962,28 +1998,28 @@
       <c r="D62">
         <v>15</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+    <row r="63" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
       <c r="C63" t="s">
         <v>17</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="2"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2" t="s">
+    <row r="64" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C64" t="s">
@@ -1992,24 +2028,24 @@
       <c r="D64" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="2"/>
+      <c r="E64" s="3"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+    <row r="65" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
       <c r="C65" t="s">
         <v>28</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="2"/>
+      <c r="E65" s="3"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2" t="s">
+    <row r="66" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C66" t="s">
@@ -2018,26 +2054,26 @@
       <c r="D66">
         <v>35</v>
       </c>
-      <c r="E66" s="2"/>
+      <c r="E66" s="3"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+    <row r="67" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
       <c r="C67" t="s">
         <v>8</v>
       </c>
       <c r="D67">
         <v>15</v>
       </c>
-      <c r="E67" s="2"/>
+      <c r="E67" s="3"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" ht="15">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C68" t="s">
@@ -2046,165 +2082,558 @@
       <c r="D68">
         <v>150</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="14.45" customHeight="1">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+    <row r="69" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
       <c r="C69" t="s">
         <v>53</v>
       </c>
       <c r="D69">
         <v>75</v>
       </c>
-      <c r="E69" s="2"/>
+      <c r="E69" s="3"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" ht="15">
-      <c r="A70" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15">
-      <c r="A71" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15">
-      <c r="A72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15">
-      <c r="A73" s="1" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15">
-      <c r="A74" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15">
+      <c r="F74" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15">
+      <c r="F75" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15">
+      <c r="F76" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15">
+      <c r="F77" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>700</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80">
+        <v>250</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82">
+        <v>70</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>0.35</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84">
+        <v>3.5</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3"/>
+      <c r="B85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85">
+        <v>300</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>30</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87">
+        <v>15</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>70</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="6"/>
+      <c r="B89" t="s">
+        <v>75</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>150</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="6"/>
+      <c r="B90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="3"/>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <v>15</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>15</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="3"/>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93">
+        <v>0.1</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="3"/>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94">
+        <v>1.25</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95">
+        <v>70</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
+      <c r="B96" s="3"/>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96">
+        <v>60</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97">
+        <v>300</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="6"/>
+      <c r="B98" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>30</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="6"/>
+      <c r="B99" s="3"/>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99">
+        <v>0.2</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="6"/>
+      <c r="B100" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" t="s">
+        <v>80</v>
+      </c>
+      <c r="D100">
+        <v>70</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="6"/>
+      <c r="B101" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101">
+        <v>30</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="6"/>
+      <c r="B102" s="3"/>
+      <c r="C102" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102">
+        <v>15</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103">
+        <v>1100</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C104" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104">
+        <v>700</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>200</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106">
+        <v>70</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107">
+        <v>30</v>
+      </c>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="3"/>
+      <c r="B108" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" t="s">
+        <v>74</v>
+      </c>
+      <c r="D108">
+        <v>70</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3"/>
+      <c r="B109" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109">
+        <v>30</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="E38:E45"/>
-    <mergeCell ref="F38:F45"/>
-    <mergeCell ref="E46:E52"/>
-    <mergeCell ref="F46:F52"/>
-    <mergeCell ref="E53:E61"/>
-    <mergeCell ref="F53:F61"/>
-    <mergeCell ref="F2:F10"/>
-    <mergeCell ref="E11:E23"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="F11:F23"/>
-    <mergeCell ref="E24:E37"/>
-    <mergeCell ref="F24:F37"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A11:A23"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A37"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A53:A61"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
+  <mergeCells count="71">
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="E88:E96"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="E104:E109"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="F88:F96"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="F104:F109"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A103:A109"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A79:A87"/>
+    <mergeCell ref="B90:B91"/>
     <mergeCell ref="E62:E67"/>
     <mergeCell ref="F62:F67"/>
     <mergeCell ref="E68:E69"/>
@@ -2215,6 +2644,45 @@
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A24:A37"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A11:A23"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="E11:E23"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="F11:F23"/>
+    <mergeCell ref="E24:E37"/>
+    <mergeCell ref="F24:F37"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="F46:F52"/>
+    <mergeCell ref="E53:E61"/>
+    <mergeCell ref="F53:F61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2:F10" r:id="rId1" display="https://i.ibb.co/ct6rTQ5/desktop-computer.png" xr:uid="{1ECF97B6-5BA3-44EF-B228-DD3158A811F9}"/>
@@ -2225,21 +2693,27 @@
     <hyperlink ref="F53:F61" r:id="rId6" display="https://i.ibb.co/fd414rqB/router.png" xr:uid="{4032769C-6A9B-4190-9336-074843B26A64}"/>
     <hyperlink ref="F68:F69" r:id="rId7" display="https://i.ibb.co/99qGSBvK/3d-printer.png" xr:uid="{A451CEAB-8BAF-49D8-B80A-12AE913F2FE1}"/>
     <hyperlink ref="F62:F67" r:id="rId8" display="https://i.ibb.co/hJwqKfB2/smart-watch.pngl" xr:uid="{85E36851-9ABD-44A4-AF43-69A0D136906E}"/>
-    <hyperlink ref="F70" r:id="rId9" xr:uid="{583C5E18-1106-43EA-9F68-4559CCA59084}"/>
-    <hyperlink ref="F71" r:id="rId10" xr:uid="{0000CE70-3765-4F74-9EF9-92A2DB188634}"/>
-    <hyperlink ref="F72" r:id="rId11" xr:uid="{9AB1E1C8-887B-4AAD-855F-C9C6DC8AA6EB}"/>
-    <hyperlink ref="F73" r:id="rId12" xr:uid="{D2C5E45A-2081-4335-97ED-CC28BBA1CFD0}"/>
-    <hyperlink ref="F74" r:id="rId13" xr:uid="{8DB83549-653F-495A-B56D-6F291EB873DA}"/>
-    <hyperlink ref="F75" r:id="rId14" xr:uid="{217EC62A-A383-4E09-94FB-29E7379FB3E0}"/>
-    <hyperlink ref="F76" r:id="rId15" xr:uid="{B14A74FD-2421-4C48-B8AC-C6ED6E429D52}"/>
-    <hyperlink ref="F77" r:id="rId16" xr:uid="{F8A45EC2-1161-44CF-BBE1-C0BFFDCA0DD5}"/>
-    <hyperlink ref="F78" r:id="rId17" xr:uid="{6F774461-43FC-4B15-B4D8-E618112FADA8}"/>
+    <hyperlink ref="F74" r:id="rId9" xr:uid="{8DB83549-653F-495A-B56D-6F291EB873DA}"/>
+    <hyperlink ref="F75" r:id="rId10" xr:uid="{217EC62A-A383-4E09-94FB-29E7379FB3E0}"/>
+    <hyperlink ref="F76" r:id="rId11" xr:uid="{B14A74FD-2421-4C48-B8AC-C6ED6E429D52}"/>
+    <hyperlink ref="F77" r:id="rId12" xr:uid="{F8A45EC2-1161-44CF-BBE1-C0BFFDCA0DD5}"/>
+    <hyperlink ref="F78" r:id="rId13" xr:uid="{6F774461-43FC-4B15-B4D8-E618112FADA8}"/>
+    <hyperlink ref="F68" r:id="rId14" xr:uid="{59EA0251-A685-4B66-9DEA-FBA375813F5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8766d81-4db2-4748-b28e-60c4bf3d33a1">
@@ -2247,15 +2721,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2437,13 +2902,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C7E468-69EE-4095-B6B4-C2194416E774}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7D2869-E5CE-4880-B44E-E7432ECA8669}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A7D2869-E5CE-4880-B44E-E7432ECA8669}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C7E468-69EE-4095-B6B4-C2194416E774}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8766d81-4db2-4748-b28e-60c4bf3d33a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D5B449-F0D8-420B-9316-E594330FFA21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44D5B449-F0D8-420B-9316-E594330FFA21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e8766d81-4db2-4748-b28e-60c4bf3d33a1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>